--- a/uploads/08-09-2021-8.xlsx
+++ b/uploads/08-09-2021-8.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Apoteka BAŠČARŠIJA</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Hajra Eskić</t>
+  </si>
+  <si>
+    <t>PR_1</t>
   </si>
   <si>
     <t>Redovan rad noću</t>
@@ -1161,16 +1164,16 @@
       <c r="F14" s="18">
         <v>7.5</v>
       </c>
-      <c r="G14" s="18">
-        <v>83</v>
+      <c r="G14" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="18">
         <v>7.5</v>
       </c>
-      <c r="K14" s="18">
-        <v>83</v>
+      <c r="K14" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="L14" s="18">
         <v>7.5</v>
@@ -1201,19 +1204,19 @@
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
       <c r="X14" s="18">
-        <v>7.5</v>
+        <v>1022</v>
       </c>
       <c r="Y14" s="18">
-        <v>7.5</v>
+        <v>1022</v>
       </c>
       <c r="Z14" s="18">
-        <v>7.5</v>
+        <v>1022</v>
       </c>
       <c r="AA14" s="18">
-        <v>7.5</v>
+        <v>1022</v>
       </c>
       <c r="AB14" s="18">
-        <v>7.5</v>
+        <v>1022</v>
       </c>
       <c r="AC14" s="20"/>
       <c r="AD14" s="20"/>
@@ -1237,7 +1240,7 @@
         <v>2011</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -1357,7 +1360,7 @@
         <v>2013</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -1397,7 +1400,7 @@
         <v>2015</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -1437,7 +1440,7 @@
         <v>2014</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
@@ -1475,7 +1478,7 @@
         <v>104</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="22">
         <v>5</v>
@@ -1489,16 +1492,16 @@
       <c r="F21" s="18">
         <v>7.5</v>
       </c>
-      <c r="G21" s="18">
-        <v>83</v>
+      <c r="G21" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="18">
         <v>7.5</v>
       </c>
-      <c r="K21" s="18">
-        <v>83</v>
+      <c r="K21" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="L21" s="18">
         <v>7.5</v>
@@ -1565,7 +1568,7 @@
         <v>2011</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
@@ -1685,7 +1688,7 @@
         <v>2013</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -1725,7 +1728,7 @@
         <v>2015</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -1765,7 +1768,7 @@
         <v>2014</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
@@ -1803,7 +1806,7 @@
         <v>310</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="22">
         <v>5</v>
@@ -1893,7 +1896,7 @@
         <v>2011</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
@@ -2013,7 +2016,7 @@
         <v>2013</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
@@ -2053,7 +2056,7 @@
         <v>2015</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
@@ -2093,7 +2096,7 @@
         <v>2014</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
@@ -2131,7 +2134,7 @@
         <v>402</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="22">
         <v>5</v>
@@ -2221,7 +2224,7 @@
         <v>2011</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
@@ -2341,7 +2344,7 @@
         <v>2013</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
@@ -2381,7 +2384,7 @@
         <v>2015</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
@@ -2421,7 +2424,7 @@
         <v>2014</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
@@ -2459,7 +2462,7 @@
         <v>463</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="22">
         <v>5</v>
@@ -2549,7 +2552,7 @@
         <v>2011</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
@@ -2669,7 +2672,7 @@
         <v>2013</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -2709,7 +2712,7 @@
         <v>2015</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
@@ -2749,7 +2752,7 @@
         <v>2014</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
@@ -2787,7 +2790,7 @@
         <v>506</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C49" s="22">
         <v>5</v>
@@ -2877,7 +2880,7 @@
         <v>2011</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
@@ -2997,7 +3000,7 @@
         <v>2013</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
@@ -3037,7 +3040,7 @@
         <v>2015</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
@@ -3077,7 +3080,7 @@
         <v>2014</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
@@ -3115,7 +3118,7 @@
         <v>532</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C56" s="22">
         <v>5</v>
@@ -3205,7 +3208,7 @@
         <v>2011</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
@@ -3325,7 +3328,7 @@
         <v>2013</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
@@ -3365,7 +3368,7 @@
         <v>2015</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -3405,7 +3408,7 @@
         <v>2014</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
@@ -3443,7 +3446,7 @@
         <v>571</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C63" s="22">
         <v>5</v>
@@ -3533,7 +3536,7 @@
         <v>2011</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
@@ -3653,7 +3656,7 @@
         <v>2013</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
@@ -3693,7 +3696,7 @@
         <v>2015</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
@@ -3733,7 +3736,7 @@
         <v>2014</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -3771,7 +3774,7 @@
         <v>574</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C70" s="22">
         <v>5</v>
@@ -3861,7 +3864,7 @@
         <v>2011</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
@@ -3981,7 +3984,7 @@
         <v>2013</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
@@ -4021,7 +4024,7 @@
         <v>2015</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
@@ -4061,7 +4064,7 @@
         <v>2014</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
@@ -4099,7 +4102,7 @@
         <v>579</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C77" s="22">
         <v>5</v>
@@ -4189,7 +4192,7 @@
         <v>2011</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="18"/>
@@ -4309,7 +4312,7 @@
         <v>2013</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
@@ -4349,7 +4352,7 @@
         <v>2015</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="18"/>
@@ -4389,7 +4392,7 @@
         <v>2014</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
@@ -4427,7 +4430,7 @@
         <v>611</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C84" s="22">
         <v>5</v>
@@ -4517,7 +4520,7 @@
         <v>2011</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="18"/>
@@ -4637,7 +4640,7 @@
         <v>2013</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E88" s="18"/>
       <c r="F88" s="18"/>
@@ -4677,7 +4680,7 @@
         <v>2015</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E89" s="18"/>
       <c r="F89" s="18"/>
@@ -4717,7 +4720,7 @@
         <v>2014</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
@@ -4755,7 +4758,7 @@
         <v>634</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C91" s="22">
         <v>5</v>
@@ -4845,7 +4848,7 @@
         <v>2011</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="18"/>
@@ -4965,7 +4968,7 @@
         <v>2013</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
@@ -5005,7 +5008,7 @@
         <v>2015</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
@@ -5045,7 +5048,7 @@
         <v>2014</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
@@ -5083,7 +5086,7 @@
         <v>638</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C98" s="22">
         <v>5</v>
@@ -5173,7 +5176,7 @@
         <v>2011</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="18"/>
@@ -5293,7 +5296,7 @@
         <v>2013</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
@@ -5333,7 +5336,7 @@
         <v>2015</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="18"/>
@@ -5373,7 +5376,7 @@
         <v>2014</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
